--- a/publication/results/rigid_transforms/icp_mean-rmse.xlsx
+++ b/publication/results/rigid_transforms/icp_mean-rmse.xlsx
@@ -473,19 +473,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5248064758258921</v>
+        <v>0.5248064758132298</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4795737833038622</v>
+        <v>0.4795737832824779</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7109239415726358</v>
+        <v>0.7109239415488631</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3858002161671268</v>
+        <v>0.3858002161257905</v>
       </c>
       <c r="G2" t="n">
-        <v>0.80886009760389</v>
+        <v>0.8088600975632795</v>
       </c>
     </row>
   </sheetData>
